--- a/Ventas.xlsx
+++ b/Ventas.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAAD98F-D715-4289-80D1-79EA97B37BAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas Cerdo Metricas" sheetId="1" r:id="rId1"/>
     <sheet name="Ventas Huevo Metricas" sheetId="2" r:id="rId2"/>
     <sheet name="Ventas Borrego Metricas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Categoría</t>
   </si>
@@ -69,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,9 +116,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -131,13 +135,200 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79E066F5-6984-4A1E-8310-C08B8751B296}" name="Cerdo" displayName="Cerdo" ref="A1:D3" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A1:D3" xr:uid="{3D7FF9E5-D541-4442-AEC6-F32D3BFF1C1D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{093B8075-85E5-46F6-8DCB-19D4BEF6D056}" name="Medida"/>
+    <tableColumn id="2" xr3:uid="{5BBD8DC2-CBCA-4409-AB35-52966E2D3578}" name="Categoría"/>
+    <tableColumn id="3" xr3:uid="{E554622E-DA86-4B1F-91AC-27360B6923A7}" name="TiempoEngorda"/>
+    <tableColumn id="4" xr3:uid="{ABC0AD34-0973-4FEB-9334-DC10FBA35684}" name="Peso"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F2CA16A-89A5-4B72-99BD-68E5E0AD1148}" name="Huevo" displayName="Huevo" ref="A1:H3" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:H3" xr:uid="{42FF5E36-6DD1-4B97-A156-FAFA371675FA}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CCC7E666-AA78-447E-8209-6F6F3D4CDC4C}" name="Medida"/>
+    <tableColumn id="2" xr3:uid="{DACAF728-0DD1-4001-9E5B-21E3542733E0}" name="Categoría"/>
+    <tableColumn id="3" xr3:uid="{3C8FA640-F7A6-45E2-815D-3D09B9B44144}" name="Kilo"/>
+    <tableColumn id="4" xr3:uid="{E9ED61B8-1F74-4F76-AAD9-D440F5123EAD}" name="Venta"/>
+    <tableColumn id="5" xr3:uid="{158034E8-93EF-4EA7-9316-08E2541055D5}" name="Costo"/>
+    <tableColumn id="6" xr3:uid="{4F1514D4-9388-436F-BD46-4A0C9DE9EA4D}" name="Utilidad Bruta"/>
+    <tableColumn id="7" xr3:uid="{05625DC4-640C-489A-B595-1665123EB200}" name="Precio"/>
+    <tableColumn id="8" xr3:uid="{952ADDE1-DE38-4E1C-9FA5-8845147A8FAA}" name="Costo Uni"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E034503F-41A3-4D1E-874C-9E47D6A6A22F}" name="Borrego" displayName="Borrego" ref="A1:J3" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="A1:J3" xr:uid="{97001BF1-D2B2-4FF9-8E85-48EFD88F62F8}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{C6CD789D-25FE-4CFA-9416-F5B26D695325}" name="Medida"/>
+    <tableColumn id="2" xr3:uid="{0427162C-E04F-4E5D-8624-B6602AD8CCAB}" name="Categoría"/>
+    <tableColumn id="3" xr3:uid="{C2B04A9C-8B70-4229-A5AF-1D9569AE670F}" name="Kilo"/>
+    <tableColumn id="4" xr3:uid="{EF946345-C6CD-4C4A-83D6-918A2F553286}" name="Cabezas"/>
+    <tableColumn id="5" xr3:uid="{5262C355-8BF4-4C0B-BA1B-7A62AFC835C7}" name="Venta"/>
+    <tableColumn id="6" xr3:uid="{6888F5E2-3358-4353-81A1-A32E8FF66921}" name="Costo"/>
+    <tableColumn id="7" xr3:uid="{43950E75-4E20-4CE6-A54F-58079D7EF7B3}" name="Precio"/>
+    <tableColumn id="8" xr3:uid="{D32E8D05-2D66-4A01-BFAA-53979EDCBECE}" name="Utilidad Bruta"/>
+    <tableColumn id="9" xr3:uid="{4CFCE7DD-AF56-49D3-9B2C-95A8ADBB886E}" name="Peso"/>
+    <tableColumn id="10" xr3:uid="{639C606C-EABA-4489-9038-6E0BC838FF0E}" name="Costo Uni"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -179,7 +370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,9 +402,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,6 +454,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,319 +647,288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>5.928851428189151</v>
-      </c>
       <c r="C2">
-        <v>193.5518844069837</v>
+        <v>5.9288514281891507</v>
       </c>
       <c r="D2">
-        <v>1.733895243829019</v>
-      </c>
-      <c r="E2">
-        <v>5971.849835440497</v>
-      </c>
-      <c r="F2">
-        <v>4677.234265302039</v>
-      </c>
-      <c r="G2">
-        <v>2514.360303833029</v>
-      </c>
-      <c r="H2">
-        <v>111.6968002558664</v>
-      </c>
-      <c r="I2">
-        <v>31.59342942002812</v>
-      </c>
-      <c r="J2">
-        <v>1294.61557013847</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
+        <v>111.69680025586641</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0.4851554164071367</v>
-      </c>
       <c r="C3">
-        <v>256.8548309550491</v>
+        <v>0.48515541640713672</v>
       </c>
       <c r="D3">
-        <v>2.249722097709933</v>
-      </c>
-      <c r="E3">
-        <v>10688.61929555619</v>
-      </c>
-      <c r="F3">
-        <v>6292.047935810141</v>
-      </c>
-      <c r="G3">
-        <v>1121.726206002992</v>
-      </c>
-      <c r="H3">
-        <v>5.183347255514954</v>
-      </c>
-      <c r="I3">
-        <v>10.28464559730521</v>
-      </c>
-      <c r="J3">
-        <v>6659.257756527183</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
+        <v>5.1833472555149536</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>464.2934247344784</v>
-      </c>
       <c r="C2">
-        <v>10677.84603451794</v>
+        <v>464.29342473447838</v>
       </c>
       <c r="D2">
-        <v>140715.1137009806</v>
+        <v>10677.846034517939</v>
       </c>
       <c r="E2">
+        <v>140715.11370098061</v>
+      </c>
+      <c r="F2">
         <v>-130037.2676664629</v>
       </c>
-      <c r="F2">
-        <v>22.87857250817003</v>
-      </c>
       <c r="G2">
-        <v>186.1548866421647</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
+        <v>22.878572508170031</v>
+      </c>
+      <c r="H2">
+        <v>186.15488664216471</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>586.0215251078511</v>
-      </c>
       <c r="C3">
+        <v>586.02152510785106</v>
+      </c>
+      <c r="D3">
         <v>13991.89017154656</v>
       </c>
-      <c r="D3">
-        <v>13174295.73833144</v>
-      </c>
       <c r="E3">
+        <v>13174295.738331441</v>
+      </c>
+      <c r="F3">
         <v>13174259.27052144</v>
       </c>
-      <c r="F3">
-        <v>33.99422395514762</v>
-      </c>
       <c r="G3">
-        <v>16868.43251812654</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
+        <v>33.994223955147618</v>
+      </c>
+      <c r="H3">
+        <v>16868.432518126541</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>200.0032203389831</v>
-      </c>
       <c r="C2">
-        <v>4.932203389830509</v>
+        <v>200.00322033898311</v>
       </c>
       <c r="D2">
-        <v>8768.313559322034</v>
+        <v>4.9322033898305087</v>
       </c>
       <c r="E2">
+        <v>8768.3135593220341</v>
+      </c>
+      <c r="F2">
         <v>8533.213101694917</v>
       </c>
-      <c r="F2">
-        <v>45.36006101694914</v>
-      </c>
       <c r="G2">
+        <v>45.360061016949139</v>
+      </c>
+      <c r="H2">
         <v>235.1004576271186</v>
       </c>
-      <c r="H2">
-        <v>41.87953793381759</v>
-      </c>
       <c r="I2">
+        <v>41.879537933817588</v>
+      </c>
+      <c r="J2">
         <v>1733.156118644067</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>555.8426336604839</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>12.42892123204593</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>21900.54156743766</v>
       </c>
-      <c r="E3">
-        <v>33277.0591853337</v>
-      </c>
       <c r="F3">
-        <v>12.26064197496533</v>
+        <v>33277.059185333703</v>
       </c>
       <c r="G3">
+        <v>12.260641974965329</v>
+      </c>
+      <c r="H3">
         <v>13120.1908621492</v>
       </c>
-      <c r="H3">
-        <v>6.577458265106874</v>
-      </c>
       <c r="I3">
+        <v>6.5774582651068743</v>
+      </c>
+      <c r="J3">
         <v>1169.581241488964</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>